--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -82,16 +82,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>CTL30101</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
+    <t>CTL100101</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>CTL301</t>
+    <t>CTL1001</t>
   </si>
   <si>
     <t/>
@@ -100,52 +100,31 @@
     <t>2</t>
   </si>
   <si>
-    <t>CTL100101</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>CTL1001</t>
+    <t>CTL100102</t>
+  </si>
+  <si>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>CTL30102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn </t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>CTL100201</t>
+  </si>
+  <si>
+    <t>Phan Văn</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CTL1002</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>CTL100102</t>
-  </si>
-  <si>
-    <t>Trần Thị</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CTL100201</t>
-  </si>
-  <si>
-    <t>Phan Văn</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CTL1002</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>CTL100202</t>
@@ -291,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -317,26 +296,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -686,7 +656,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
@@ -875,7 +845,9 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
@@ -884,190 +856,132 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="11">
         <v>10</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="10">
-        <v>9</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1083,10 +997,10 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -82,49 +82,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>CTL100101</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CTL1001</t>
+    <t>CTL100201</t>
+  </si>
+  <si>
+    <t>Phan Văn</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CTL1002</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>CTL100102</t>
-  </si>
-  <si>
-    <t>Trần Thị</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CTL100201</t>
-  </si>
-  <si>
-    <t>Phan Văn</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CTL1002</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>CTL100202</t>
@@ -198,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,21 +220,6 @@
         <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -270,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -300,12 +258,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -656,7 +608,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
@@ -846,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -878,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>27</v>
@@ -887,101 +839,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="9">
-        <v>7</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="11">
-        <v>10</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -997,10 +885,10 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -82,16 +82,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>CTL100101</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn</t>
+    <t>CTL30101</t>
+  </si>
+  <si>
+    <t>Nguyễn</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>CTL1001</t>
+    <t>CTL301</t>
   </si>
   <si>
     <t/>
@@ -100,52 +100,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>CTL30101</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>CTL301</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CTL100102</t>
-  </si>
-  <si>
-    <t>Trần Thị</t>
+    <t>CTL30102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn </t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CTL100201</t>
-  </si>
-  <si>
-    <t>Phan Văn</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CTL1002</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CTL100202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lưu văn </t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Hà Nội, ngày ___ tháng ___ năm 20___</t>
@@ -210,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,21 +220,6 @@
         <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -282,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -314,11 +260,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -668,7 +611,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
@@ -858,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -881,17 +824,15 @@
         <v>30</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="9">
-        <v>3</v>
-      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="9" t="s">
         <v>27</v>
       </c>
@@ -899,133 +840,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="9">
-        <v>7</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="11">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1041,10 +886,10 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>CTL30102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn </t>
   </si>
   <si>
     <t>B</t>
@@ -228,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -259,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -801,7 +795,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -821,10 +815,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>26</v>
@@ -832,7 +826,9 @@
       <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9">
+        <v>8</v>
+      </c>
       <c r="I13" s="9" t="s">
         <v>27</v>
       </c>
@@ -847,30 +843,30 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -104,6 +104,51 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CTL30103</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CTL30104</t>
+  </si>
+  <si>
+    <t>Trần</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CTL30105</t>
+  </si>
+  <si>
+    <t>Văn</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CTL30106</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>Hà Nội, ngày ___ tháng ___ năm 20___</t>
@@ -168,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,6 +262,21 @@
         <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -225,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -251,11 +311,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -605,7 +680,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
@@ -794,9 +869,7 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
@@ -805,68 +878,186 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="9">
-        <v>8</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -882,10 +1073,10 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -82,16 +82,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>CTL30101</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CTL301</t>
+    <t>ATL220101</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>ATL2201</t>
   </si>
   <si>
     <t/>
@@ -100,55 +100,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>CTL30102</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CTL30103</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CTL30104</t>
-  </si>
-  <si>
-    <t>Trần</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CTL30105</t>
-  </si>
-  <si>
-    <t>Văn</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CTL30106</t>
-  </si>
-  <si>
-    <t>Lưu</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>ATL220102</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phú</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
   </si>
   <si>
     <t>Hà Nội, ngày ___ tháng ___ năm 20___</t>
@@ -213,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -262,21 +220,6 @@
         <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -285,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -321,15 +264,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,7 +614,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
@@ -888,10 +822,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>26</v>
@@ -907,157 +841,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1073,10 +887,10 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -6,12 +6,15 @@
   <sheets>
     <sheet sheetId="1" name="SinhVien" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SinhVien'!$13:$14</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -28,10 +31,10 @@
     <t>DANH SÁCH THI SINH DỰ THI</t>
   </si>
   <si>
-    <t>Năm học ... . Học kỳ ...</t>
-  </si>
-  <si>
-    <t>Môn thi: ...</t>
+    <t>Năm học 2020 - 2021 . Học kỳ 1</t>
+  </si>
+  <si>
+    <t>Môn thi: Lập trình driver</t>
   </si>
   <si>
     <t xml:space="preserve">Lần thi: </t>
@@ -46,7 +49,7 @@
     <t>Ngày thi: ...               Giờ thi: ...               Phòng thi: ...             Mã phòng thi: ...</t>
   </si>
   <si>
-    <t>Tổng số thí sinh: ...    Có mặt:......   Vắng: ......    Có lý do: ......    Không lý do: .......</t>
+    <t>Tổng số thí sinh: 2    Có mặt:......   Vắng: ......    Có lý do: ......    Không lý do: .......</t>
   </si>
   <si>
     <t>STT</t>
@@ -82,16 +85,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>ATL220101</t>
-  </si>
-  <si>
-    <t>Nguyễn Tùng</t>
-  </si>
-  <si>
-    <t>Dương</t>
-  </si>
-  <si>
-    <t>ATL2201</t>
+    <t>ATL200101</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>ATL2001</t>
   </si>
   <si>
     <t/>
@@ -100,13 +103,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>ATL220102</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Phú</t>
-  </si>
-  <si>
-    <t>Thịnh</t>
+    <t>ATL200102</t>
+  </si>
+  <si>
+    <t>Phúc</t>
   </si>
   <si>
     <t>Hà Nội, ngày ___ tháng ___ năm 20___</t>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -254,17 +254,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -620,8 +614,8 @@
     <col min="1" max="1" width="5.148" customWidth="1"/>
     <col min="2" max="2" width="5.28" customWidth="1"/>
     <col min="3" max="3" width="13.547999999999998" customWidth="1"/>
-    <col min="4" max="4" width="23.148" customWidth="1"/>
-    <col min="5" max="5" width="8.748" customWidth="1"/>
+    <col min="4" max="4" width="22.8" customWidth="1"/>
+    <col min="5" max="5" width="9.096" customWidth="1"/>
     <col min="6" max="6" width="9.251999999999999" customWidth="1"/>
     <col min="7" max="7" width="7.548" customWidth="1"/>
     <col min="8" max="8" width="9.251999999999999" customWidth="1"/>
@@ -803,7 +797,9 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
@@ -812,32 +808,34 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="9">
+        <v>7</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -848,30 +846,30 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -892,7 +890,8 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>
--- a/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/danh_sach_cuoi_ky.xlsx
@@ -6,12 +6,15 @@
   <sheets>
     <sheet sheetId="1" name="SinhVien" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SinhVien'!$13:$14</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>HỌC VIỆN KỸ THUẬT MẬT MÃ</t>
   </si>
@@ -28,10 +31,10 @@
     <t>DANH SÁCH THI SINH DỰ THI</t>
   </si>
   <si>
-    <t>Năm học ... . Học kỳ ...</t>
-  </si>
-  <si>
-    <t>Môn thi: ...</t>
+    <t>Năm học 2021 - 2022 . Học kỳ 1</t>
+  </si>
+  <si>
+    <t>Môn thi: Tin học đại cương</t>
   </si>
   <si>
     <t xml:space="preserve">Lần thi: </t>
@@ -46,7 +49,7 @@
     <t>Ngày thi: ...               Giờ thi: ...               Phòng thi: ...             Mã phòng thi: ...</t>
   </si>
   <si>
-    <t>Tổng số thí sinh: ...    Có mặt:......   Vắng: ......    Có lý do: ......    Không lý do: .......</t>
+    <t>Tổng số thí sinh: 16    Có mặt:......   Vắng: ......    Có lý do: ......    Không lý do: .......</t>
   </si>
   <si>
     <t>STT</t>
@@ -82,16 +85,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>CTL30101</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CTL301</t>
+    <t>HH310101</t>
+  </si>
+  <si>
+    <t>Trần Xuân</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>HH3101</t>
   </si>
   <si>
     <t/>
@@ -100,55 +103,181 @@
     <t>2</t>
   </si>
   <si>
-    <t>CTL30102</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>HH310102</t>
+  </si>
+  <si>
+    <t>Tưởng Cao</t>
+  </si>
+  <si>
+    <t>Bằng</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>CTL30103</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>HH310103</t>
+  </si>
+  <si>
+    <t>Noy</t>
+  </si>
+  <si>
+    <t>Boutdavongsy</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>CTL30104</t>
-  </si>
-  <si>
-    <t>Trần</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>HH310105</t>
+  </si>
+  <si>
+    <t>Hoàng Viết</t>
+  </si>
+  <si>
+    <t>Đức</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>CTL30105</t>
-  </si>
-  <si>
-    <t>Văn</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>HH310104</t>
+  </si>
+  <si>
+    <t>Nguyễn Đặng</t>
+  </si>
+  <si>
+    <t>Dương</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>CTL30106</t>
-  </si>
-  <si>
-    <t>Lưu</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>HH310106</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HH310107</t>
+  </si>
+  <si>
+    <t>Lê Minh</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>HH310108</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>HH310109</t>
+  </si>
+  <si>
+    <t>Khamphouthay</t>
+  </si>
+  <si>
+    <t>Khuangboun</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HH310110</t>
+  </si>
+  <si>
+    <t>Bùi Nguyễn Thành</t>
+  </si>
+  <si>
+    <t>Lộc</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>HH310111</t>
+  </si>
+  <si>
+    <t>Đỗ Hoài</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>HH310112</t>
+  </si>
+  <si>
+    <t>Bounsack</t>
+  </si>
+  <si>
+    <t>Philaxay</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>HH310113</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng</t>
+  </si>
+  <si>
+    <t>Quyết</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>HH310114</t>
+  </si>
+  <si>
+    <t>Oudomphone</t>
+  </si>
+  <si>
+    <t>Thavone</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>HH310115</t>
+  </si>
+  <si>
+    <t>Lê Phi</t>
+  </si>
+  <si>
+    <t>Trọng</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>HH310116</t>
+  </si>
+  <si>
+    <t>Phaivone</t>
+  </si>
+  <si>
+    <t>Vilaphanh</t>
   </si>
   <si>
     <t>Hà Nội, ngày ___ tháng ___ năm 20___</t>
@@ -285,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -311,26 +440,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -680,14 +800,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5.148" customWidth="1"/>
     <col min="2" max="2" width="5.28" customWidth="1"/>
     <col min="3" max="3" width="13.547999999999998" customWidth="1"/>
-    <col min="4" max="4" width="23.148" customWidth="1"/>
-    <col min="5" max="5" width="8.748" customWidth="1"/>
+    <col min="4" max="4" width="22.8" customWidth="1"/>
+    <col min="5" max="5" width="9.096" customWidth="1"/>
     <col min="6" max="6" width="9.251999999999999" customWidth="1"/>
     <col min="7" max="7" width="7.548" customWidth="1"/>
     <col min="8" max="8" width="9.251999999999999" customWidth="1"/>
@@ -869,7 +989,9 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
@@ -878,186 +1000,516 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="13" t="s">
+      <c r="G17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1073,12 +1525,13 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>